--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/52.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/52.xlsx
@@ -479,13 +479,13 @@
         <v>-0.05011661676827131</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.592219222807076</v>
+        <v>-8.773429786439406</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.071326037479611</v>
+        <v>-3.024102101129504</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.433085824007101</v>
+        <v>-5.472925701554473</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.3040192035216074</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.834518471498901</v>
+        <v>-9.026883677152382</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.168038878571441</v>
+        <v>-3.108233239190436</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.359114312951349</v>
+        <v>-5.409585140406203</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.4802681182943858</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.654973813681348</v>
+        <v>-9.839928775926412</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.05463335135641</v>
+        <v>-2.993989804593534</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.236662004472685</v>
+        <v>-5.276082928329122</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.4423288592124837</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.42582242039649</v>
+        <v>-10.60453235418606</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.955446065027493</v>
+        <v>-2.896569979148251</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.44164819006559</v>
+        <v>-5.493362786290408</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.236702236163293</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.20438239348542</v>
+        <v>-11.38056551282653</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.801454399003111</v>
+        <v>-2.748391295585595</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.995279216979782</v>
+        <v>-5.047399674592693</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.09476541555955881</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.86474505651924</v>
+        <v>-12.03806096153801</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.770779133444947</v>
+        <v>-2.719575137030956</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.136388057007905</v>
+        <v>-5.17480087354553</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4907688044038583</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.3612706417917</v>
+        <v>-12.54108032901997</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.650225208878333</v>
+        <v>-2.595735044451069</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.696224835469074</v>
+        <v>-4.734022313773138</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.8914248717322679</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.33976317157662</v>
+        <v>-13.5060223253637</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.397295010279027</v>
+        <v>-2.349337904969785</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.615366773118574</v>
+        <v>-4.644222208581739</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.236435074108453</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.08780498674149</v>
+        <v>-14.2503721111272</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.373165896141726</v>
+        <v>-2.330681373420325</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.251557861752691</v>
+        <v>-4.253076568882331</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.478581147545893</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.78540215905718</v>
+        <v>-14.94775980659742</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.194298854718065</v>
+        <v>-2.151591762848354</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.036110926189246</v>
+        <v>-4.041387124234462</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.586156716372442</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.45238952732891</v>
+        <v>-15.60867234635059</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.1763623998249</v>
+        <v>-2.145621672752527</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.519855240534304</v>
+        <v>-3.528116483627433</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.547873249917401</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.42419189036171</v>
+        <v>-16.57549963430354</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.01320612181131</v>
+        <v>-1.976141812466383</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.877795616873216</v>
+        <v>-2.890128566150122</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.371445811148038</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.06952458973323</v>
+        <v>-17.20749127707934</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.728671104152077</v>
+        <v>-1.704253959352258</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.51723359661208</v>
+        <v>-2.50919492266726</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.08234514217299</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.97615346921992</v>
+        <v>-18.10979969662826</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.557829644370393</v>
+        <v>-1.535376344996833</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.918614233779839</v>
+        <v>-1.916637296050738</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.7198109204590792</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.89540332864603</v>
+        <v>-19.02197971251984</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.388467614809825</v>
+        <v>-1.377928311022236</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.574915099578846</v>
+        <v>-1.542158157868847</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.3321102660187353</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.68638789713175</v>
+        <v>-19.80534456075168</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.140538675896059</v>
+        <v>-1.142698905864943</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.047740433353904</v>
+        <v>-1.01380518438815</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.02939646581662213</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.67566848445826</v>
+        <v>-20.79013448820347</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.041613235623976</v>
+        <v>-1.045449280356602</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6848741677926244</v>
+        <v>-0.646566089677734</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3182629861054159</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.51564445017772</v>
+        <v>-21.62694211663523</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8900436456253137</v>
+        <v>-0.8968254584973278</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3185646265839708</v>
+        <v>-0.2737103970482173</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4960859000235728</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.16516668645859</v>
+        <v>-22.28121685884765</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.631601587529641</v>
+        <v>-0.6531384257042805</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06099432510050967</v>
+        <v>0.0905436526142854</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5400248271522186</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.79694885238893</v>
+        <v>-22.90429264338824</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3297716378164883</v>
+        <v>-0.3565584894306598</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3755630854786619</v>
+        <v>0.4154422399345595</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.4383551841059696</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.42793238784591</v>
+        <v>-23.53411096389231</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.05589375467042067</v>
+        <v>-0.09434584811657012</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3370324382154621</v>
+        <v>0.3823972675620429</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.1978684518672243</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.94095427469895</v>
+        <v>-24.04226251408823</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0627617859841427</v>
+        <v>0.02387764654421627</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5943485582667463</v>
+        <v>0.6583961037684701</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.1643873607721466</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.32444091723595</v>
+        <v>-24.41900662066173</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04389577758921543</v>
+        <v>0.003571484836699137</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5253521222908498</v>
+        <v>0.5799208405351641</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.6182553961599064</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.59827952347349</v>
+        <v>-24.68823673629899</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3292556103274768</v>
+        <v>0.2877661026220469</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5145509724464259</v>
+        <v>0.5687007369998048</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.129174241647357</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.61734191641104</v>
+        <v>-24.69847491712122</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3428323283743467</v>
+        <v>0.305637096001003</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3535942013102455</v>
+        <v>0.4184141926796313</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.658197984487182</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.59659061640691</v>
+        <v>-24.66125350014219</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1615824878334911</v>
+        <v>0.1243610708544638</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3309314250912178</v>
+        <v>0.3946254784162151</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.167539100929301</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.70915823624007</v>
+        <v>-24.76254864722863</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2758390147332345</v>
+        <v>0.2433177344743869</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04368630074374781</v>
+        <v>0.1078254923653638</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.621271982976472</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.75625124956176</v>
+        <v>-24.80410361644827</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2203407429871576</v>
+        <v>0.2065938250033453</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.04878463422736341</v>
+        <v>0.004501038338461688</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.988628986510709</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.52802622642479</v>
+        <v>-24.57030127230072</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09671012725273839</v>
+        <v>0.06882352219986186</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2457976073896573</v>
+        <v>-0.1985474864338679</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.245054326957296</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.05421578658272</v>
+        <v>-24.10437239876937</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0944058819525946</v>
+        <v>0.07383787418824295</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.7023000228749618</v>
+        <v>-0.660090438513237</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.37439650385615</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.14134506199441</v>
+        <v>-24.18373793859592</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1580344737633833</v>
+        <v>0.1378461427814417</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7541324498253553</v>
+        <v>-0.7275288904509679</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.367452038990238</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.71612015799799</v>
+        <v>-23.75884034217054</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06870569147428633</v>
+        <v>0.05236649752781219</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.214942232945588</v>
+        <v>-1.191624841584474</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.223870315332836</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.15664678066251</v>
+        <v>-23.20061073360502</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.08982900363617463</v>
+        <v>-0.09701667789628224</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.286936806272239</v>
+        <v>-1.274001611064614</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.947787124313256</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.81506859952187</v>
+        <v>-22.85007741732065</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2805445791315982</v>
+        <v>-0.2918694210896913</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.308722398200872</v>
+        <v>-1.299937462994073</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.552983350904774</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.08822322265777</v>
+        <v>-22.12240722537751</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4138242220603696</v>
+        <v>-0.416769990199758</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.509348846947482</v>
+        <v>-1.507699216789424</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.052178662721935</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.27376415517683</v>
+        <v>-21.3235803674896</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3503920147922068</v>
+        <v>-0.3497504919529623</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.639394691074347</v>
+        <v>-1.62090835946183</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.46872403850124</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.89944212462904</v>
+        <v>-20.94681007631041</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4043453948029599</v>
+        <v>-0.4143740987797221</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.888541214152394</v>
+        <v>-1.867672083422683</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.819813302583301</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.24584818216439</v>
+        <v>-20.2888694893023</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.255512096098218</v>
+        <v>-0.2572402800733259</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.040752326990301</v>
+        <v>-2.030514146168072</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.1322554926121907</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.94418843238818</v>
+        <v>-19.97301768324566</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5371929917379544</v>
+        <v>-0.540989759562055</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.266450535678817</v>
+        <v>-2.24956146501299</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5773524859631891</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.40705052370069</v>
+        <v>-19.45182619941939</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2593219562251603</v>
+        <v>-0.2652004002010953</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.103909595898788</v>
+        <v>-2.105650872176737</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.285364493109554</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.85014323772219</v>
+        <v>-18.89223499135833</v>
       </c>
       <c r="F42" t="n">
-        <v>0.002445546792310695</v>
+        <v>-0.01388055485132171</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.072357146050228</v>
+        <v>-2.089154570596162</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.978766306304208</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.9455567574788</v>
+        <v>-17.998894799256</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.007635526395818377</v>
+        <v>-0.02143481359099765</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.9595800493716</v>
+        <v>-1.983447317452066</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>2.639022766338267</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.60950352813738</v>
+        <v>-17.66003981710644</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03825299506443149</v>
+        <v>0.02954661367468366</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.161410989979649</v>
+        <v>-2.190947225190583</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>3.253679191039154</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.10146980866704</v>
+        <v>-17.14970185233596</v>
       </c>
       <c r="F45" t="n">
-        <v>0.009096436635907538</v>
+        <v>-0.003576912514883296</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.202952866896446</v>
+        <v>-2.237542731004286</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>3.810140309426699</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.72569453250382</v>
+        <v>-16.774070591504</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02557964591364066</v>
+        <v>0.0143988192868066</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.141026274455081</v>
+        <v>-2.194429777746482</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.298557056854492</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.05509368864777</v>
+        <v>-16.11271291345421</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03052853638781311</v>
+        <v>0.03033215184518722</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.428952198550321</v>
+        <v>-2.489150607016577</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>4.714222861234006</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.40652719047434</v>
+        <v>-15.45428791124096</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.002045113082401346</v>
+        <v>0.003165623448605629</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.361317362069964</v>
+        <v>-2.427224014575213</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>5.051440722958461</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.86877394355329</v>
+        <v>-14.92590875315458</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1500481690299304</v>
+        <v>0.1454134938239593</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.53938577302028</v>
+        <v>-2.62570332565578</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>5.313473142876723</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.17002464858752</v>
+        <v>-14.23238328702267</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2975853297533415</v>
+        <v>0.2945348231912193</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.444518946629133</v>
+        <v>-2.558814750437402</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>5.499414583684657</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.40961060723723</v>
+        <v>-13.4604611114745</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2905940400358598</v>
+        <v>0.2887873022437015</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.508042800017188</v>
+        <v>-2.638992013040132</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>5.617280506650027</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.82421447027514</v>
+        <v>-12.86787730025229</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3759820391695972</v>
+        <v>0.3710724256039499</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.518136965508159</v>
+        <v>-2.650395408815275</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>5.670179068243995</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.17200831191171</v>
+        <v>-12.20877149829128</v>
       </c>
       <c r="F53" t="n">
-        <v>0.42363802151348</v>
+        <v>0.4191735462444515</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.536832773966144</v>
+        <v>-2.676710937527145</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>5.665081318651853</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.79458340559043</v>
+        <v>-11.84388901809237</v>
       </c>
       <c r="F54" t="n">
-        <v>0.315194477075463</v>
+        <v>0.3072998184619022</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.640144135690204</v>
+        <v>-2.7862018661925</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>5.606987452700146</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.34038523540527</v>
+        <v>-11.38246389673858</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06583847715194832</v>
+        <v>0.0598029255419126</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.102106041460508</v>
+        <v>-3.258428137390718</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>5.499297983490652</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.89313907802907</v>
+        <v>-10.9452988125505</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1585712581798941</v>
+        <v>0.145622970669427</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.16970160103234</v>
+        <v>-3.327764973240499</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>5.346286179333818</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.13771320406147</v>
+        <v>-10.18578814009629</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09287408252011264</v>
+        <v>0.08331670144565262</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.536678849685922</v>
+        <v>-3.685472871482139</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>5.148001558391736</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.834744224001088</v>
+        <v>-9.878996207606123</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.08072985316117502</v>
+        <v>-0.08359706748351303</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.570404621806208</v>
+        <v>-3.725705518114763</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>4.907224127430467</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.291950440485968</v>
+        <v>-9.339213653744599</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01064132837123121</v>
+        <v>-0.0007882520095956438</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.856785654166124</v>
+        <v>-4.002214954132017</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>4.624183643827304</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.927172698709796</v>
+        <v>-8.980222709824471</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1263172516560652</v>
+        <v>-0.1396190313432589</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.768517348407207</v>
+        <v>-3.916722216575546</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>4.303990252814951</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.401988062516796</v>
+        <v>-8.444708246689348</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1520959959514238</v>
+        <v>-0.1569008710943373</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.170477230253881</v>
+        <v>-4.315225730472005</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>3.953006012814297</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.887774776105164</v>
+        <v>-7.943783647662068</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.09306280243808097</v>
+        <v>-0.1025023527869655</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.127482107721653</v>
+        <v>-4.280662050969847</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>3.581606373416535</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.402678771213529</v>
+        <v>-7.462693887440001</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1533266724185461</v>
+        <v>-0.1558665791698409</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.130427875861041</v>
+        <v>-4.280583497152797</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>3.203069398177217</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.052184731837681</v>
+        <v>-7.10079645228901</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3108532602101941</v>
+        <v>-0.3113769523238631</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.382467797867109</v>
+        <v>-4.530188250830305</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>2.830846393950738</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.677050978513703</v>
+        <v>-6.731528050638126</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2565463880227144</v>
+        <v>-0.2615083707997286</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.668298953507673</v>
+        <v>-4.811725131138782</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>2.480307477886448</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.429737377833498</v>
+        <v>-6.486152110778495</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3745996827465584</v>
+        <v>-0.3754114055227454</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.663546447576127</v>
+        <v>-4.797716367098135</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>2.163688413644855</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.26553371559257</v>
+        <v>-6.321411664121056</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4288280011169877</v>
+        <v>-0.4286578011800453</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.781010588672093</v>
+        <v>-4.906722880558346</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>1.895275408212798</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.989089741089524</v>
+        <v>-6.041314937125169</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.399658350385622</v>
+        <v>-0.3957306595331042</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.779806096810653</v>
+        <v>-4.90348908175644</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>1.68272935423238</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.856988405416508</v>
+        <v>-5.904421818612081</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6555081325186328</v>
+        <v>-0.6476134739050721</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.883104366231873</v>
+        <v>-5.000215015151112</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>1.535138518481821</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.615356864169612</v>
+        <v>-5.672072720079969</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5994076148418367</v>
+        <v>-0.5994468917503618</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.752953783682274</v>
+        <v>-4.862117404776585</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>1.452930246277667</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.49285218647958</v>
+        <v>-5.546347335890873</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7016977769442424</v>
+        <v>-0.6951254409176959</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.732438145129289</v>
+        <v>-4.833641646095831</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>1.438711359891517</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.470595271648646</v>
+        <v>-5.531238818411522</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7936973890130515</v>
+        <v>-0.7841007310300663</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.634206596907818</v>
+        <v>-4.726271670490836</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>1.488300720378558</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.502317921434148</v>
+        <v>-5.56771397412857</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8556370737572575</v>
+        <v>-0.8422698325558552</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.449408742296854</v>
+        <v>-4.539287401305304</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>1.59742842036336</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.739982494920002</v>
+        <v>-5.805103609254747</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7465389141771542</v>
+        <v>-0.7368637023771186</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.334968923157327</v>
+        <v>-4.433907455732251</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>1.75611743882818</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.943319050354849</v>
+        <v>-6.002155859325566</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.079175052476888</v>
+        <v>-1.060256674870594</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.169586953660644</v>
+        <v>-4.269075362954919</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>1.954187490824682</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.472064792920798</v>
+        <v>-6.530286263657954</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9891785627428634</v>
+        <v>-0.9716217846321088</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.004558476340686</v>
+        <v>-4.109702760462588</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>2.177605895585343</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.938543543171498</v>
+        <v>-6.992549292393618</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.047046541303293</v>
+        <v>-1.026465441236099</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.92388370622997</v>
+        <v>-4.026566637417628</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>2.413959114836587</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.511501992433956</v>
+        <v>-7.569500894022803</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.142960751921778</v>
+        <v>-1.115152700685952</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.518506733341606</v>
+        <v>-3.634399798096565</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>2.648397656634579</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.938913311004946</v>
+        <v>-7.996008843697712</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.107938841820161</v>
+        <v>-1.075129530898795</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.306856565602263</v>
+        <v>-3.431482196352653</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>2.86973733972577</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.411453797471363</v>
+        <v>-8.467371022908376</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.291335820027059</v>
+        <v>-1.262179261598535</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.93904140956681</v>
+        <v>-3.065447593503675</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>3.064594280858543</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.354440001949525</v>
+        <v>-9.41044887350643</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.215426648150732</v>
+        <v>-1.185694028397172</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.913459049814077</v>
+        <v>-3.049789199304971</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>3.221936296113344</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.18320895643647</v>
+        <v>-10.23123152325992</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.308604567475296</v>
+        <v>-1.27457767238965</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.73917431438502</v>
+        <v>-2.874732018008252</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>3.331128920275182</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.01656021691802</v>
+        <v>-11.0614537233623</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.418527542134428</v>
+        <v>-1.375244388939682</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.364813006928705</v>
+        <v>-2.503643786262368</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>3.384642399225505</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.23677593406973</v>
+        <v>-12.27058026000707</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.492983468395324</v>
+        <v>-1.45707128170047</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.26063755321709</v>
+        <v>-2.396011964600538</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>3.379349635586244</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.12680377355311</v>
+        <v>-13.15000333418865</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.593178862043054</v>
+        <v>-1.550838354652912</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.913521327974407</v>
+        <v>-2.056463090400372</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>3.313241918783764</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32272017663058</v>
+        <v>-14.33353441877784</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.805012322022182</v>
+        <v>-1.748663050591393</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.673421586159993</v>
+        <v>-1.805064691233549</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>3.187922268172187</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42832587470582</v>
+        <v>-15.42946490505305</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.845821029979842</v>
+        <v>-1.79150106548952</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.2579635400835</v>
+        <v>-1.395851673612559</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>3.00398448980225</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.8471780105722</v>
+        <v>-16.83768609101195</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.873079204496315</v>
+        <v>-1.812540396156174</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9543006679725052</v>
+        <v>-1.083783543077176</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>2.764123506856075</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.54706951923907</v>
+        <v>-18.51293788573069</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.099353474509867</v>
+        <v>-2.04081778850451</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7437371613690248</v>
+        <v>-0.8765062044869689</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>2.471600973175207</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.16234547463986</v>
+        <v>-20.12592268813418</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.320665761746405</v>
+        <v>-2.265809012839572</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4552613605544327</v>
+        <v>-0.5784206533865498</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.12860776471576</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.99160202768583</v>
+        <v>-21.94971975089515</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.533690621284129</v>
+        <v>-2.468726614583485</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6224238832375911</v>
+        <v>-0.7269528291259321</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>1.739002400987297</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.71763886512763</v>
+        <v>-23.66875220631662</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.639044382251499</v>
+        <v>-2.572404560787113</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4443947491958</v>
+        <v>-0.5515290633496445</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>1.299474680973964</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.79765229450117</v>
+        <v>-25.7400854389061</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.811574749099765</v>
+        <v>-2.758197430414048</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4431902573343612</v>
+        <v>-0.5462135883959036</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.8129712426875172</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.06903591451223</v>
+        <v>-28.0022258931109</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.684147365541246</v>
+        <v>-2.627758817201931</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5778576843643556</v>
+        <v>-0.6859739212313294</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.2743426856624557</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.35001619250627</v>
+        <v>-30.28399170927544</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.172673553777412</v>
+        <v>-3.122883526070328</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9679690321392672</v>
+        <v>-1.055661276573148</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3173337971706157</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.53404796795733</v>
+        <v>-32.46184391778521</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.231222332085611</v>
+        <v>-3.182545150120073</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.190813118808287</v>
+        <v>-1.2726792884776</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.9585867195293991</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.75930740505698</v>
+        <v>-34.68917193873386</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.614250744023149</v>
+        <v>-3.552428890004518</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.428386046174248</v>
+        <v>-1.502462295652734</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.655639006389706</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.2634328926854</v>
+        <v>-37.19472448737203</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.856798746468966</v>
+        <v>-3.798603460337493</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.860811716733618</v>
+        <v>-1.919190295104875</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.381836743372709</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.79997492214994</v>
+        <v>-39.72184005879051</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.74821118669969</v>
+        <v>-3.689322008517606</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.341547984778958</v>
+        <v>-2.393354227123668</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.156214869016448</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.36512363332364</v>
+        <v>-42.29894204245872</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.930168011593999</v>
+        <v>-3.876581216062814</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.708355033495597</v>
+        <v>-2.745065850663797</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.902730303260634</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.60483697276056</v>
+        <v>-44.56054571224701</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.172113768109097</v>
+        <v>-4.117270111505106</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.318849115005284</v>
+        <v>-3.344549305483592</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.69451030537205</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.90524622817173</v>
+        <v>-46.87311771699813</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.316129099368084</v>
+        <v>-4.258575336075856</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.594376628309409</v>
+        <v>-3.61372705190948</v>
       </c>
     </row>
   </sheetData>
